--- a/CSV-Reconcile_Process/Examples/Cotton/Reconciled/SME_Label_Not_In_The_NALT.xlsx
+++ b/CSV-Reconcile_Process/Examples/Cotton/Reconciled/SME_Label_Not_In_The_NALT.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Examples/Cotton/Reconciled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AD1E69-12EE-7447-8148-38841C2385D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C51C00-F21A-5043-BEBF-A0B763FBC314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25460" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Not in Nalt" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Not in Nalt'!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -206,12 +209,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -554,13 +558,16 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -587,7 +594,7 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>66.666666669999998</v>
       </c>
       <c r="D2" t="s">
@@ -604,7 +611,7 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>60.869565219999998</v>
       </c>
       <c r="D3" t="s">
@@ -621,7 +628,7 @@
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>52.941176470000002</v>
       </c>
       <c r="D4" t="s">
@@ -638,7 +645,7 @@
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>59.25925926</v>
       </c>
       <c r="D5" t="s">
@@ -655,7 +662,7 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>75.862068969999996</v>
       </c>
       <c r="D6" t="s">
@@ -672,7 +679,7 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>58.064516130000001</v>
       </c>
       <c r="D7" t="s">
@@ -689,7 +696,7 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>57.142857139999997</v>
       </c>
       <c r="D8" t="s">
@@ -706,7 +713,7 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>52.631578949999998</v>
       </c>
       <c r="D9" t="s">
@@ -723,7 +730,7 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>47.826086959999998</v>
       </c>
       <c r="D10" t="s">
@@ -740,7 +747,7 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>70.967741939999996</v>
       </c>
       <c r="D11" t="s">
@@ -757,7 +764,7 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>47.826086959999998</v>
       </c>
       <c r="D12" t="s">
@@ -774,7 +781,7 @@
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>58.823529409999999</v>
       </c>
       <c r="D13" t="s">
@@ -785,6 +792,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
